--- a/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03137205550732185</v>
+        <v>-0.1648635128125109</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.300995818940285</v>
+        <v>9.355810204763872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.180251499463131</v>
+        <v>1.754724130992042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.416860737104453</v>
+        <v>5.611837629348667</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.001258891912530263</v>
+        <v>-0.006732843511615085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4394975949585049</v>
+        <v>0.4558366891425102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09849238903100478</v>
+        <v>0.08120419525840283</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2782173335341898</v>
+        <v>0.2839045071466682</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.926091130243535</v>
+        <v>6.919243541334579</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.5177662677022</v>
+        <v>16.3243246052193</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.947130180849358</v>
+        <v>10.22116009206635</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.02378980340737</v>
+        <v>12.95535316944981</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3443963054270844</v>
+        <v>0.3316344245324708</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9884639299401522</v>
+        <v>0.9758666317724468</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.582797583925542</v>
+        <v>0.592011900525962</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8996995195453177</v>
+        <v>0.8887253502488293</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.341540591251401</v>
+        <v>3.411872762621172</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.311804121519347</v>
+        <v>6.421586932432964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.510837072281827</v>
+        <v>1.747725129967293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.962385399898297</v>
+        <v>3.15206776625396</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2256430390204664</v>
+        <v>0.2241007979019747</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3950242666136862</v>
+        <v>0.3991312319565652</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1394560709120057</v>
+        <v>0.1668219920556476</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2135569972550557</v>
+        <v>0.2352976237079845</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.789214479405443</v>
+        <v>8.760812216392001</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.52313015450933</v>
+        <v>11.71026156033536</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.662625106194318</v>
+        <v>5.752749623758738</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.220317177369921</v>
+        <v>7.181230486535331</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6644742985792027</v>
+        <v>0.6747867541229705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.838370258959747</v>
+        <v>0.8468386805892035</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6320089794976124</v>
+        <v>0.6595884447274714</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6279034296256756</v>
+        <v>0.6370379655503821</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.516035111759549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.112333694282255</v>
+        <v>4.112333694282258</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3025941697319567</v>
@@ -849,7 +849,7 @@
         <v>0.49244212615536</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3044697977839612</v>
+        <v>0.3044697977839614</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4925667426601841</v>
+        <v>-0.5643499848846489</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.859635805602081</v>
+        <v>-2.434721575422655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2570663226125114</v>
+        <v>0.7497243766569158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3502414238392398</v>
+        <v>0.2918619969841172</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02907969795657357</v>
+        <v>-0.03356672299613631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1199331470233469</v>
+        <v>-0.1418744952963243</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.006831072593829593</v>
+        <v>0.06264214111901976</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01836546776236445</v>
+        <v>0.0168827953281817</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.291414249837739</v>
+        <v>9.412266085203322</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.331629720481928</v>
+        <v>8.28889852000345</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.253686599572454</v>
+        <v>8.297514960697937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.576915770725018</v>
+        <v>7.616713869459504</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7283872708549924</v>
+        <v>0.7511528064816532</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7979072430078769</v>
+        <v>0.7778196907268672</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.091901003213906</v>
+        <v>1.111255017440558</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6685074663320509</v>
+        <v>0.6542116533758119</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.641148867559894</v>
+        <v>3.386726263165873</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.989052698958202</v>
+        <v>8.074503690149367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.23250134345462</v>
+        <v>3.202455818968963</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.51829595357064</v>
+        <v>4.526792316895125</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2036186327714969</v>
+        <v>0.1920116794942026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4830722806399094</v>
+        <v>0.4706363823300893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2565595990460837</v>
+        <v>0.2563273664308201</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3134963811395969</v>
+        <v>0.3174836910790117</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.544641214668904</v>
+        <v>7.449192173842737</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.97818453914423</v>
+        <v>11.97404105644634</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.704040048193899</v>
+        <v>6.562899758167869</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.781397871530872</v>
+        <v>7.756836857403433</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4702573402501553</v>
+        <v>0.4718318908488795</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7975983161558245</v>
+        <v>0.8047925700098081</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6257060106896858</v>
+        <v>0.6115445102757583</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6303682828690667</v>
+        <v>0.6238776196176683</v>
       </c>
     </row>
     <row r="16">
